--- a/web_scraper/processed_judgements_final/cra1709-2023-02-10-2024.xlsx
+++ b/web_scraper/processed_judgements_final/cra1709-2023-02-10-2024.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On October 22, 2021, Mst. Hameeda, the wife of complainant Sher Dil Khan, was shot and killed by the appellants, Kamal Jalal, Bilal, and Farhad, along with an absconding co-accused, Faisal. * The occurrence allegedly took place in front of Sher Dil's house in Faqir Kalay Garhi Fazil, Peshawar. * The appellants allegedly opened indiscriminate firing at Sher Dil and his wife, resulting in Mst. Hameeda's death. * The prosecution's case is that the appellants had no motive for the crime and that the occurrence was a random act of violence.   The crime scenario involves the murder of a deceased person, where the prosecution alleged that the accused, Kamal Jalal, was involved in the crime. The prosecution's case relied on the testimony of chance witnesses, medical evidence, and forensic science laboratory (FSL) reports. However, the prosecution's case was marred by several doubts and inconsistencies, including the failure to explain why the crime empties were kept in the police station for two days before being sent to the FSL.  </t>
+          <t xml:space="preserve"> * On October 22, 2021, Mst. Hameeda, the wife of complainant Sher Dil Khan, was shot and killed in front of their house in Faqir Kalay Garhi Fazil, Peshawar. * The complainant and his wife had come out of their house when the accused, Kamal Jalal, Bilal, and Farhad, along with an absconding co-accused, Faisal, opened fire on them. * The complainant survived the attack, but his wife succumbed to her injuries on the way to the hospital. * The accused were charged with murder (Section 302 PPC) and attempted murder (Section 324 PPC) of the complainant and his unborn child.   * The appellants were accused of committing a crime, but the prosecution's case was based on circumstantial evidence. * The prosecution relied on the testimony of chance witnesses, but their presence at the crime scene was not established through independent evidence. * The medical evidence showed that the deceased had a solitary firearm entrance wound, which contradicted the prosecution's theory of the crime. * The prosecution also relied on a positive FSL report, but the empty recovered from the spot was kept in the PS for two days before being sent to the FSL, and the pistol was recovered on the pointation of one of the appellants after his arrest.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Sher Dil Khan (PW.9), the complainant, testified that he was present at the spot and witnessed the occurrence. * Sabir Umar (PW.10), the nephew of Sher Dil, testified that he was present at the spot and witnessed the occurrence. * Gul Nabi Shah SI (PW.2) testified that he registered the FIR and prepared the site plan. * Safdar Khan Inspector (PW.11) testified that he conducted the investigation and recovered evidence. * Mustajab Begum, the lady doctor who conducted the postmortem examination, testified about the injuries sustained by Mst. Hameeda.   The testimony of chance witnesses, including Muhammad Irshad and Rab Nawaz, was challenged by the court, as their presence at the crime scene was not established through independent evidence. Additionally, the prosecution's case relied on the statement of Muhammad Arshad, who admitted that he had not assigned any reason for coming to the village on the day of the occurrence.  </t>
+          <t xml:space="preserve"> * Complainant Sher Dil Khan (PW.9) testified that he and his wife were attacked by the accused when they came out of their house. He admitted that he was on leave from his duty at the FC Intelligence Branch and had no enmity with the accused. * Sabir Umar (PW.10), the nephew of the complainant, testified that he was present near his uncle's house when the accused started firing. He claimed to have escaped unhurt while his aunt was hit and injured.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Additional Sessions Judge convicted the appellants under Sections 302, 324, 338-C, and 34 PPC and sentenced them to imprisonment for life. * The appellants appealed the conviction and sentence. * The Court of Appeal found serious doubts about the prosecution's case, including the complainant's presence at the spot, the lack of motive, and the suspicious circumstances surrounding the occurrence. * The Court held that the prosecution failed to prove its case beyond a reasonable doubt and that the appellants' convictions and sentences were not sustainable. * The Court acquitted the appellants and set aside their convictions and sentences.  **Basis of Decision:**  * The Court applied the principles of criminal jurisprudence, including the requirement that the prosecution must prove its case beyond a reasonable doubt. * The Court also applied the principles of chance witnesses, holding that the testimony of Sher Dil and Sabir Umar was suspect and not confidence-inspiring. * The Court relied on previous judgments of the Supreme Court of Pakistan, including Abdul Khaliq vs. the State and Rab Nawaz and others vs. the State.  The court allowed the appeal and acquitted the appellants, including Kamal Jalal, from the charges levelled against them. The court held that the prosecution's case was "pregnant with doubts" and that the benefit of doubt should be extended to the accused. The court relied on several Supreme Court judgments, including Muhammad Masha vs the State, Abdul Jabbar vs the State, and others, to support its decision. The court observed that it is better that ten guilty persons be acquitted rather than one innocent person be convicted, and that the prosecution's case was not strong enough to prove the guilt of the accused beyond a reasonable doubt. </t>
+          <t xml:space="preserve"> * The appellants, Kamal Jalal, Bilal, and Farhad, were convicted of murder (Section 302 PPC) and sentenced to life imprisonment. * The court found that the prosecution's case was based on the testimony of two alleged eyewitnesses, the complainant and Sabir Umar, who were found to be chance witnesses and their testimony was suspect. * The court also found that the prosecution failed to prove the motive behind the attack and that the accused had no enmity with the complainant or his family. * The court applied Sections 302, 324, 338-C, and 34 PPC in its judgment. * The court also extended the benefit of Section 382-B Cr.P.C. to the appellants.  * The court allowed the appeal and set aside the conviction and sentences of the appellants. * The court held that the prosecution's case was pregnant with doubts and that the benefit of doubt should be extended to the appellants. * The court relied on various judgments that emphasized the importance of giving the benefit of doubt to the accused, particularly in cases where the prosecution's evidence is circumstantial and based on chance witnesses. * The court also noted that the prosecution's failure to establish the presence of the chance witnesses at the crime scene, as well as the delay in sending the empty to the FSL, created reasonable doubt about the guilt of the appellants. * The court acquitted the appellants and set them at liberty forthwith. </t>
         </is>
       </c>
     </row>
